--- a/GunfireDungeon_Godot/excel/EditorObject.xlsx
+++ b/GunfireDungeon_Godot/excel/EditorObject.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17380"/>
+    <workbookView windowWidth="28290" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>Id</t>
   </si>
@@ -62,42 +62,6 @@
   </si>
   <si>
     <t>string</t>
-  </si>
-  <si>
-    <t>0001</t>
-  </si>
-  <si>
-    <t>item_0003</t>
-  </si>
-  <si>
-    <t>0002</t>
-  </si>
-  <si>
-    <t>item_0005</t>
-  </si>
-  <si>
-    <t>0003</t>
-  </si>
-  <si>
-    <t>item_0020</t>
-  </si>
-  <si>
-    <t>0004</t>
-  </si>
-  <si>
-    <t>item_0023</t>
-  </si>
-  <si>
-    <t>0006</t>
-  </si>
-  <si>
-    <t>相机</t>
-  </si>
-  <si>
-    <t>res://prefab/dungeonitem/Dungenitem0002.tscn</t>
-  </si>
-  <si>
-    <t>res://resource/sprite/itemIcon/item0002_icon.png</t>
   </si>
 </sst>
 </file>
@@ -1083,21 +1047,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="28.3365384615385" style="2" customWidth="1"/>
-    <col min="3" max="3" width="25.5576923076923" style="2" customWidth="1"/>
-    <col min="4" max="4" width="59.2211538461538" style="3" customWidth="1"/>
-    <col min="5" max="5" width="51.6634615384615" style="3" customWidth="1"/>
+    <col min="2" max="2" width="28.3333333333333" style="2" customWidth="1"/>
+    <col min="3" max="3" width="25.5583333333333" style="2" customWidth="1"/>
+    <col min="4" max="4" width="59.225" style="3" customWidth="1"/>
+    <col min="5" max="5" width="51.6666666666667" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="31.05" customHeight="1" spans="1:5">
@@ -1151,70 +1115,48 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="16.95" customHeight="1" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" ht="17" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" ht="17" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" ht="17" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" ht="17" spans="1:5">
-      <c r="A8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="4"/>
+    <row r="4" spans="1:5">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="5"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="5"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="5"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="5"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="2:5">
       <c r="B9" s="5"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="D10" s="2"/>
       <c r="E10" s="6"/>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="5"/>
-      <c r="D11" s="2"/>
       <c r="E11" s="6"/>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="5"/>
+      <c r="D12" s="6"/>
       <c r="E12" s="6"/>
     </row>
     <row r="13" spans="2:5">
@@ -1224,16 +1166,16 @@
     </row>
     <row r="14" spans="2:5">
       <c r="B14" s="5"/>
-      <c r="D14" s="6"/>
+      <c r="D14" s="2"/>
       <c r="E14" s="6"/>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" s="5"/>
-      <c r="D15" s="2"/>
       <c r="E15" s="6"/>
     </row>
     <row r="16" spans="2:5">
       <c r="B16" s="5"/>
+      <c r="D16" s="6"/>
       <c r="E16" s="6"/>
     </row>
     <row r="17" spans="2:5">
@@ -1243,16 +1185,16 @@
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="5"/>
-      <c r="D18" s="6"/>
+      <c r="D18" s="2"/>
       <c r="E18" s="6"/>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" s="5"/>
-      <c r="D19" s="2"/>
       <c r="E19" s="6"/>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="5"/>
+      <c r="D20" s="6"/>
       <c r="E20" s="6"/>
     </row>
     <row r="21" spans="2:5">
@@ -1267,11 +1209,12 @@
     </row>
     <row r="23" spans="2:5">
       <c r="B23" s="5"/>
-      <c r="D23" s="2"/>
+      <c r="D23" s="6"/>
       <c r="E23" s="6"/>
     </row>
     <row r="24" spans="2:5">
       <c r="B24" s="5"/>
+      <c r="D24" s="6"/>
       <c r="E24" s="6"/>
     </row>
     <row r="25" spans="2:5">
@@ -1279,42 +1222,17 @@
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
     </row>
-    <row r="26" spans="2:5">
+    <row r="26" spans="1:5">
+      <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" spans="2:5">
+    <row r="27" spans="1:5">
+      <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
-    </row>
-    <row r="28" spans="2:5">
-      <c r="B28" s="5"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-    </row>
-    <row r="29" spans="2:5">
-      <c r="B29" s="5"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-    </row>
-    <row r="30" spans="2:5">
-      <c r="B30" s="5"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="4"/>
-      <c r="B31" s="5"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="4"/>
-      <c r="B32" s="5"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1332,7 +1250,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1349,7 +1267,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
